--- a/src/assets/front-page-project-rankings.xlsx
+++ b/src/assets/front-page-project-rankings.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr showObjects="none" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Programming\Web Projects\Portfolio\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14902C70-55FE-4CF0-8F9A-708452669817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6DF4C0-65FB-434F-BBD3-2FFAF8C03F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{4485ED5C-2E61-4B77-B558-137798777729}"/>
   </bookViews>
@@ -137,12 +137,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -157,9 +181,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +529,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -564,576 +596,576 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="Y2">
-        <f>SUM(B2:P2)</f>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>4</v>
+      </c>
+      <c r="N2" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" ref="Y2:Y12" si="0">SUM(B2:P2)</f>
         <v>19</v>
       </c>
-      <c r="Z2">
-        <f>RANK(Y2, $Y$2:$Y$12, 1)</f>
+      <c r="Z2" s="3">
+        <f t="shared" ref="Z2:Z12" si="1">RANK(Y2, $Y$2:$Y$12, 1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-      <c r="L3">
-        <v>9</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3">
-        <v>9</v>
-      </c>
-      <c r="Y3">
-        <f>SUM(B3:P3)</f>
-        <v>70</v>
-      </c>
-      <c r="Z3">
-        <f>RANK(Y3, $Y$2:$Y$12, 1)</f>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5">
+        <v>6</v>
+      </c>
+      <c r="K3" s="5">
+        <v>6</v>
+      </c>
+      <c r="L3" s="5">
+        <v>9</v>
+      </c>
+      <c r="M3" s="5">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
         <v>11</v>
       </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
+      <c r="F4" s="7">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
         <v>11</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <v>11</v>
       </c>
-      <c r="K4">
-        <v>8</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>8</v>
-      </c>
-      <c r="Y4">
-        <f>SUM(B4:P4)</f>
-        <v>93</v>
-      </c>
-      <c r="Z4">
-        <f>RANK(Y4, $Y$2:$Y$12, 1)</f>
+      <c r="K4" s="7">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7">
+        <v>10</v>
+      </c>
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="7">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="Z4" s="7">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="Y5">
-        <f>SUM(B5:P5)</f>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="Z5">
-        <f>RANK(Y5, $Y$2:$Y$12, 1)</f>
+      <c r="Z5" s="3">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-      <c r="N6">
-        <v>6</v>
-      </c>
-      <c r="Y6">
-        <f>SUM(B6:P6)</f>
-        <v>62</v>
-      </c>
-      <c r="Z6">
-        <f>RANK(Y6, $Y$2:$Y$12, 1)</f>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>7</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5">
+        <v>3</v>
+      </c>
+      <c r="M6" s="5">
+        <v>6</v>
+      </c>
+      <c r="N6" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>10</v>
-      </c>
-      <c r="Y7">
-        <f>SUM(B7:P7)</f>
-        <v>93</v>
-      </c>
-      <c r="Z7">
-        <f>RANK(Y7, $Y$2:$Y$12, 1)</f>
-        <v>9</v>
+      <c r="B7" s="9">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9">
+        <v>8</v>
+      </c>
+      <c r="K7" s="9">
+        <v>10</v>
+      </c>
+      <c r="L7" s="9">
+        <v>5</v>
+      </c>
+      <c r="M7" s="9">
+        <v>5</v>
+      </c>
+      <c r="N7" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="9">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="Z7" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="9">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9">
         <v>11</v>
       </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
+      <c r="D8" s="9">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9">
+        <v>10</v>
+      </c>
+      <c r="F8" s="9">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9">
+        <v>4</v>
+      </c>
+      <c r="H8" s="9">
+        <v>9</v>
+      </c>
+      <c r="I8" s="9">
+        <v>10</v>
+      </c>
+      <c r="J8" s="9">
+        <v>10</v>
+      </c>
+      <c r="K8" s="9">
+        <v>8</v>
+      </c>
+      <c r="L8" s="9">
+        <v>6</v>
+      </c>
+      <c r="M8" s="9">
         <v>11</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="9">
         <v>11</v>
       </c>
-      <c r="Y8">
-        <f>SUM(B8:P8)</f>
-        <v>112</v>
-      </c>
-      <c r="Z8">
-        <f>RANK(Y8, $Y$2:$Y$12, 1)</f>
+      <c r="Y8" s="9">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="Z8" s="9">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="Y9">
-        <f>SUM(B9:P9)</f>
-        <v>49</v>
-      </c>
-      <c r="Z9">
-        <f>RANK(Y9, $Y$2:$Y$12, 1)</f>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
+      <c r="B10" s="7">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
         <v>11</v>
       </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>7</v>
-      </c>
-      <c r="M10">
-        <v>8</v>
-      </c>
-      <c r="N10">
-        <v>7</v>
-      </c>
-      <c r="Y10">
-        <f>SUM(B10:P10)</f>
-        <v>88</v>
-      </c>
-      <c r="Z10">
-        <f>RANK(Y10, $Y$2:$Y$12, 1)</f>
-        <v>8</v>
+      <c r="I10" s="7">
+        <v>9</v>
+      </c>
+      <c r="J10" s="7">
+        <v>9</v>
+      </c>
+      <c r="K10" s="7">
+        <v>5</v>
+      </c>
+      <c r="L10" s="7">
+        <v>7</v>
+      </c>
+      <c r="M10" s="7">
+        <v>8</v>
+      </c>
+      <c r="N10" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="7">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <v>9</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <f>SUM(B11:P11)</f>
-        <v>63</v>
-      </c>
-      <c r="Z11">
-        <f>RANK(Y11, $Y$2:$Y$12, 1)</f>
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>7</v>
+      </c>
+      <c r="K11" s="5">
+        <v>10</v>
+      </c>
+      <c r="L11" s="5">
+        <v>4</v>
+      </c>
+      <c r="M11" s="5">
+        <v>9</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="5">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="Z11" s="5">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>9</v>
-      </c>
-      <c r="L12">
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="Y12">
-        <f>SUM(B12:P12)</f>
-        <v>83</v>
-      </c>
-      <c r="Z12">
-        <f>RANK(Y12, $Y$2:$Y$12, 1)</f>
-        <v>7</v>
+      <c r="C12" s="7">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7">
+        <v>6</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+      <c r="G12" s="7">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>8</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6</v>
+      </c>
+      <c r="J12" s="7">
+        <v>4</v>
+      </c>
+      <c r="K12" s="7">
+        <v>9</v>
+      </c>
+      <c r="L12" s="7">
+        <v>8</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="7">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="Z12" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
